--- a/Ignorar_Backup/Riesgo/DataTarea_Exogenas_Riesgo9.xlsx
+++ b/Ignorar_Backup/Riesgo/DataTarea_Exogenas_Riesgo9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main (1)/CUECOPolMon-main/Riesgo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2663\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A93AC1E7-E03B-46F9-8E34-446250F362D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F72AD21-F69F-4C7D-96AF-77E9293401C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>res_Dps</t>
   </si>
@@ -42,16 +42,10 @@
     <t>res_ys</t>
   </si>
   <si>
-    <t>Meta</t>
-  </si>
-  <si>
     <t>iext</t>
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>res_Meta</t>
   </si>
   <si>
     <t>res_iext</t>
@@ -174,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +213,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,198 +519,176 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>3.3930951174366473</v>
       </c>
       <c r="C3" s="4">
-        <v>3.1930951174366471</v>
-      </c>
-      <c r="D3" s="4">
         <v>1.163849561266511</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D3" s="5">
         <v>-0.80513363517789194</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="6"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>3.3253901834923272</v>
       </c>
       <c r="C4" s="4">
-        <v>3.125390183492327</v>
-      </c>
-      <c r="D4" s="4">
         <v>1.3766701743315761</v>
       </c>
-      <c r="E4" s="5">
+      <c r="D4" s="5">
         <v>-0.67154856357217807</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="6"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>3.2680305634547002</v>
       </c>
       <c r="C5" s="4">
-        <v>3.0680305634547</v>
-      </c>
-      <c r="D5" s="4">
         <v>1.5455613233791039</v>
       </c>
-      <c r="E5" s="5">
+      <c r="D5" s="5">
         <v>-1.0882648056107822</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="6"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>3.2194354933588212</v>
       </c>
       <c r="C6" s="4">
-        <v>3.019435493358821</v>
-      </c>
-      <c r="D6" s="4">
         <v>1.674829384708675</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5">
         <v>-1.0417982177364817</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="6"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>2.9282657499735931</v>
       </c>
       <c r="C7" s="4">
-        <v>2.7282657499735929</v>
-      </c>
-      <c r="D7" s="4">
         <v>1.770894955175071</v>
       </c>
-      <c r="E7" s="5">
+      <c r="D7" s="5">
         <v>-1.0204054850822966</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="6"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>2.8933867433776284</v>
       </c>
       <c r="C8" s="4">
-        <v>2.6933867433776282</v>
-      </c>
-      <c r="D8" s="4">
         <v>1.840408717430285</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D8" s="5">
         <v>-1.015010570655839</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="6"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>2.863837248989527</v>
       </c>
       <c r="C9" s="4">
-        <v>2.6638372489895268</v>
-      </c>
-      <c r="D9" s="4">
         <v>1.8894703557769941</v>
       </c>
-      <c r="E9" s="5">
+      <c r="D9" s="5">
         <v>-0.51901486379144901</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="6"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>2.8388029173439273</v>
       </c>
       <c r="C10" s="4">
-        <v>2.6388029173439271</v>
-      </c>
-      <c r="D10" s="4">
         <v>1.923303583980273</v>
       </c>
-      <c r="E10" s="5">
+      <c r="D10" s="5">
         <v>-0.27785400560905588</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
